--- a/Tilemap.xlsx
+++ b/Tilemap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Tilemap_Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E185441-FF28-BE45-AAE7-648C899DA130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9D071-00C0-BD4A-887D-D71D0EF74FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8740" yWindow="460" windowWidth="37960" windowHeight="27040" xr2:uid="{E11FA720-BCD2-104F-83E9-F888E45A7770}"/>
   </bookViews>
@@ -555,6 +555,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -608,6 +609,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -635,7 +637,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>79963</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12">
@@ -649,8 +651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2013185" y="4327407"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:off x="2013185" y="4347163"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,7 +685,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-32</a:t>
+            <a:t>32</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -697,7 +699,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="359522" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13">
@@ -712,7 +714,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1714500" y="4673600"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:ext cx="359522" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,7 +747,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-16</a:t>
+            <a:t> 16</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -785,6 +787,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -812,7 +815,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="TextBox 16">
@@ -827,7 +830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2260600" y="8451850"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,7 +863,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-80</a:t>
+            <a:t>80</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -900,6 +903,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -927,7 +931,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19">
@@ -942,7 +946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1860550" y="9150350"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,7 +979,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-32</a:t>
+            <a:t>32</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1079,6 +1083,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1106,7 +1111,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="TextBox 22">
@@ -1120,8 +1125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2260600" y="8451850"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:off x="2260600" y="12312650"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1154,7 +1159,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-80</a:t>
+            <a:t>80</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1194,6 +1199,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1221,7 +1227,7 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="TextBox 24">
@@ -1235,8 +1241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1860550" y="9150350"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:off x="1860550" y="13011150"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,7 +1275,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-32</a:t>
+            <a:t>32</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1309,6 +1315,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="15875">
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1336,7 +1343,7 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="370871" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="TextBox 27">
@@ -1351,7 +1358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4425950" y="13601700"/>
-          <a:ext cx="370871" cy="264560"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,7 +1391,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>-64</a:t>
+            <a:t>64</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1693,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81CA57F-E727-F244-BDD9-24E9C2978251}">
   <dimension ref="H2:AB111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="AF76" sqref="AF76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="AD67" sqref="AD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Tilemap.xlsx
+++ b/Tilemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/projects/Tilemap_Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9D071-00C0-BD4A-887D-D71D0EF74FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FD775-8DE6-744C-AD24-08DACE908E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="460" windowWidth="37960" windowHeight="27040" xr2:uid="{E11FA720-BCD2-104F-83E9-F888E45A7770}"/>
+    <workbookView xWindow="8740" yWindow="460" windowWidth="25720" windowHeight="27040" xr2:uid="{E11FA720-BCD2-104F-83E9-F888E45A7770}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,8 +70,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +112,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2C7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -201,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -263,12 +294,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2C7D6"/>
+      <color rgb="FFFF2600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1698,13 +1759,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81CA57F-E727-F244-BDD9-24E9C2978251}">
-  <dimension ref="H2:AB111"/>
+  <dimension ref="H2:AB130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="AD67" sqref="AD67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A104" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="Z132" sqref="Z132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="23" max="23" width="3.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="8:28" x14ac:dyDescent="0.2">
       <c r="H2" s="5"/>
@@ -3982,7 +4046,307 @@
       <c r="V111" s="39"/>
       <c r="W111" s="39"/>
     </row>
+    <row r="115" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H115" s="49">
+        <v>0</v>
+      </c>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
+      <c r="O115" s="43"/>
+      <c r="P115" s="43"/>
+      <c r="Q115" s="43"/>
+      <c r="R115" s="43"/>
+      <c r="S115" s="43"/>
+      <c r="T115" s="37"/>
+      <c r="U115" s="35"/>
+      <c r="V115" s="35"/>
+      <c r="W115" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H116" s="49"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="44"/>
+      <c r="P116" s="44"/>
+      <c r="Q116" s="44"/>
+      <c r="R116" s="44"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="37"/>
+      <c r="U116" s="37"/>
+      <c r="V116" s="35"/>
+      <c r="W116" s="35"/>
+    </row>
+    <row r="117" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H117" s="43"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="43"/>
+      <c r="P117" s="43"/>
+      <c r="Q117" s="43"/>
+      <c r="R117" s="44"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="35"/>
+      <c r="W117" s="35"/>
+    </row>
+    <row r="118" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H118" s="43"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="44"/>
+      <c r="P118" s="44"/>
+      <c r="Q118" s="43"/>
+      <c r="R118" s="44"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="37"/>
+      <c r="V118" s="35"/>
+      <c r="W118" s="35"/>
+    </row>
+    <row r="119" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H119" s="43"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="44"/>
+      <c r="P119" s="44"/>
+      <c r="Q119" s="43"/>
+      <c r="R119" s="44"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="37"/>
+      <c r="U119" s="37"/>
+      <c r="V119" s="35"/>
+      <c r="W119" s="35"/>
+    </row>
+    <row r="120" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H120" s="43"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
+      <c r="O120" s="43"/>
+      <c r="P120" s="44"/>
+      <c r="Q120" s="44"/>
+      <c r="R120" s="44"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="38"/>
+      <c r="U120" s="37"/>
+      <c r="V120" s="35"/>
+      <c r="W120" s="35"/>
+    </row>
+    <row r="121" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H121" s="43"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
+      <c r="K121" s="44"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="44"/>
+      <c r="N121" s="44"/>
+      <c r="O121" s="43"/>
+      <c r="P121" s="44"/>
+      <c r="Q121" s="44"/>
+      <c r="R121" s="44"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="37"/>
+      <c r="U121" s="37"/>
+      <c r="V121" s="35"/>
+      <c r="W121" s="35"/>
+    </row>
+    <row r="122" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H122" s="43"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="44"/>
+      <c r="M122" s="44"/>
+      <c r="N122" s="44"/>
+      <c r="O122" s="44"/>
+      <c r="P122" s="44"/>
+      <c r="Q122" s="43"/>
+      <c r="R122" s="44"/>
+      <c r="S122" s="47"/>
+      <c r="T122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="V122" s="37"/>
+      <c r="W122" s="37"/>
+    </row>
+    <row r="123" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H123" s="43"/>
+      <c r="I123" s="44"/>
+      <c r="J123" s="43"/>
+      <c r="K123" s="44"/>
+      <c r="L123" s="44"/>
+      <c r="M123" s="44"/>
+      <c r="N123" s="44"/>
+      <c r="O123" s="44"/>
+      <c r="P123" s="44"/>
+      <c r="Q123" s="43"/>
+      <c r="R123" s="44"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="37"/>
+      <c r="U123" s="37"/>
+      <c r="V123" s="35"/>
+      <c r="W123" s="35"/>
+    </row>
+    <row r="124" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H124" s="43"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="44"/>
+      <c r="K124" s="44"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="44"/>
+      <c r="N124" s="44"/>
+      <c r="O124" s="43"/>
+      <c r="P124" s="44"/>
+      <c r="Q124" s="44"/>
+      <c r="R124" s="44"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="38"/>
+      <c r="U124" s="37"/>
+      <c r="V124" s="35"/>
+      <c r="W124" s="35"/>
+    </row>
+    <row r="125" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H125" s="43"/>
+      <c r="I125" s="44"/>
+      <c r="J125" s="44"/>
+      <c r="K125" s="44"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="43"/>
+      <c r="P125" s="44"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="44"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="37"/>
+      <c r="U125" s="37"/>
+      <c r="V125" s="35"/>
+      <c r="W125" s="35"/>
+    </row>
+    <row r="126" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H126" s="43"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="46"/>
+      <c r="L126" s="46"/>
+      <c r="M126" s="46"/>
+      <c r="N126" s="46"/>
+      <c r="O126" s="46"/>
+      <c r="P126" s="46"/>
+      <c r="Q126" s="43"/>
+      <c r="R126" s="46"/>
+      <c r="S126" s="43"/>
+      <c r="T126" s="37"/>
+      <c r="U126" s="37"/>
+      <c r="V126" s="35"/>
+      <c r="W126" s="35"/>
+    </row>
+    <row r="127" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H127" s="43"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="46"/>
+      <c r="L127" s="46"/>
+      <c r="M127" s="46"/>
+      <c r="N127" s="46"/>
+      <c r="O127" s="46"/>
+      <c r="P127" s="46"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="46"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="38"/>
+      <c r="U127" s="37"/>
+      <c r="V127" s="35"/>
+      <c r="W127" s="35"/>
+    </row>
+    <row r="128" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H128" s="43"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="46"/>
+      <c r="N128" s="46"/>
+      <c r="O128" s="43"/>
+      <c r="P128" s="43"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="46"/>
+      <c r="S128" s="43"/>
+      <c r="T128" s="38"/>
+      <c r="U128" s="37"/>
+      <c r="V128" s="35"/>
+      <c r="W128" s="35"/>
+    </row>
+    <row r="129" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H129" s="43"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="46"/>
+      <c r="O129" s="46"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
+      <c r="R129" s="46"/>
+      <c r="S129" s="43"/>
+      <c r="T129" s="37"/>
+      <c r="U129" s="37"/>
+      <c r="V129" s="35"/>
+      <c r="W129" s="35"/>
+    </row>
+    <row r="130" spans="8:23" x14ac:dyDescent="0.2">
+      <c r="H130" s="50">
+        <v>250</v>
+      </c>
+      <c r="I130" s="50"/>
+      <c r="J130" s="43"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="43"/>
+      <c r="O130" s="43"/>
+      <c r="P130" s="43"/>
+      <c r="Q130" s="43"/>
+      <c r="R130" s="43"/>
+      <c r="S130" s="43"/>
+      <c r="T130" s="37"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="48">
+        <v>255</v>
+      </c>
+      <c r="W130" s="48"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="V130:W130"/>
+    <mergeCell ref="H130:I130"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
